--- a/Master_Social_Creds.xlsx
+++ b/Master_Social_Creds.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -427,33 +427,24 @@
         <v>status</v>
       </c>
       <c r="H1" t="str">
+        <v>persona_type</v>
+      </c>
+      <c r="I1" t="str">
         <v>content_lines</v>
-      </c>
-      <c r="I1" t="str">
-        <v>persona_type</v>
-      </c>
-      <c r="J1" t="str">
-        <v>tone_voice</v>
-      </c>
-      <c r="K1" t="str">
-        <v>bio</v>
-      </c>
-      <c r="L1" t="str">
-        <v>core_topics</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>account_01</v>
+        <v>acc_samuel</v>
       </c>
       <c r="B2" t="str">
         <v>twitter</v>
       </c>
       <c r="C2" t="str">
-        <v>user_handle_1</v>
+        <v>Samuel_MendozCD</v>
       </c>
       <c r="D2" t="str">
-        <v>password_here</v>
+        <v>febrero202627</v>
       </c>
       <c r="E2" t="str">
         <v/>
@@ -465,33 +456,24 @@
         <v>active</v>
       </c>
       <c r="H2" t="str">
-        <v>general</v>
+        <v>policy_analyst</v>
       </c>
       <c r="I2" t="str">
-        <v>tech_visionary</v>
-      </c>
-      <c r="J2" t="str">
-        <v>optimistic, professional, visionary</v>
-      </c>
-      <c r="K2" t="str">
-        <v>Code + Coffee = Life. ☕💻</v>
-      </c>
-      <c r="L2" t="str">
-        <v>AI, Space, Crypto, Startup</v>
+        <v>politics, urbanism</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>account_02</v>
+        <v>acc_mariate</v>
       </c>
       <c r="B3" t="str">
         <v>twitter</v>
       </c>
       <c r="C3" t="str">
-        <v>user_handle_2</v>
+        <v>mariatemonto</v>
       </c>
       <c r="D3" t="str">
-        <v>password_here</v>
+        <v>febrero202628</v>
       </c>
       <c r="E3" t="str">
         <v/>
@@ -503,33 +485,24 @@
         <v>active</v>
       </c>
       <c r="H3" t="str">
-        <v>general</v>
+        <v>coffee_snob</v>
       </c>
       <c r="I3" t="str">
-        <v>shitposter</v>
-      </c>
-      <c r="J3" t="str">
-        <v>sarcastic, lowercase, chaotic</v>
-      </c>
-      <c r="K3" t="str">
-        <v>Professional yapper.</v>
-      </c>
-      <c r="L3" t="str">
-        <v>Pop Culture, Failures, Rants</v>
+        <v>lifestyle, culture</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>account_03</v>
+        <v>acc_daniel</v>
       </c>
       <c r="B4" t="str">
         <v>twitter</v>
       </c>
       <c r="C4" t="str">
-        <v>user_handle_3</v>
+        <v>Daniel_VargasCc</v>
       </c>
       <c r="D4" t="str">
-        <v>password_here</v>
+        <v>Habiaunavez205@</v>
       </c>
       <c r="E4" t="str">
         <v/>
@@ -538,36 +511,27 @@
         <v/>
       </c>
       <c r="G4" t="str">
-        <v>inactive</v>
+        <v>active</v>
       </c>
       <c r="H4" t="str">
-        <v>general</v>
+        <v>tech_visionary</v>
       </c>
       <c r="I4" t="str">
-        <v>coffee_snob</v>
-      </c>
-      <c r="J4" t="str">
-        <v>detailed, sensory, passionate</v>
-      </c>
-      <c r="K4" t="str">
-        <v>Q-Grader in training.</v>
-      </c>
-      <c r="L4" t="str">
-        <v>Specialty Coffee, Roasting, Origin</v>
+        <v>tech, future</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>account_04</v>
+        <v>acc_nguerrero</v>
       </c>
       <c r="B5" t="str">
         <v>twitter</v>
       </c>
       <c r="C5" t="str">
-        <v>user_handle_4</v>
+        <v>NGuerrero16814</v>
       </c>
       <c r="D5" t="str">
-        <v>password_here</v>
+        <v>Habiaunavez205@</v>
       </c>
       <c r="E5" t="str">
         <v/>
@@ -576,36 +540,27 @@
         <v/>
       </c>
       <c r="G5" t="str">
-        <v>inactive</v>
+        <v>active</v>
       </c>
       <c r="H5" t="str">
-        <v>general</v>
+        <v>shitposter</v>
       </c>
       <c r="I5" t="str">
-        <v>policy_analyst</v>
-      </c>
-      <c r="J5" t="str">
-        <v>formal, critical, academic</v>
-      </c>
-      <c r="K5" t="str">
-        <v>Data driven policy.</v>
-      </c>
-      <c r="L5" t="str">
-        <v>Politics, Urbanism, Economics</v>
+        <v>memes, rant</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>account_05</v>
+        <v>acc_revistavoces</v>
       </c>
       <c r="B6" t="str">
         <v>twitter</v>
       </c>
       <c r="C6" t="str">
-        <v>user_handle_5</v>
+        <v>RevistavocesD</v>
       </c>
       <c r="D6" t="str">
-        <v>password_here</v>
+        <v>Febrero202630</v>
       </c>
       <c r="E6" t="str">
         <v/>
@@ -614,33 +569,24 @@
         <v/>
       </c>
       <c r="G6" t="str">
-        <v>inactive</v>
+        <v>active</v>
       </c>
       <c r="H6" t="str">
-        <v>general</v>
+        <v>news_outlet</v>
       </c>
       <c r="I6" t="str">
-        <v>crypto_degen</v>
-      </c>
-      <c r="J6" t="str">
-        <v>slang-heavy, hype, volatile</v>
-      </c>
-      <c r="K6" t="str">
-        <v>Bag holder.</v>
-      </c>
-      <c r="L6" t="str">
-        <v>Web3, NFTs, DeFi</v>
+        <v>news, headlines</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>account_06</v>
+        <v>account_05</v>
       </c>
       <c r="B7" t="str">
         <v>twitter</v>
       </c>
       <c r="C7" t="str">
-        <v>user_handle_6</v>
+        <v>user_placeholder_5</v>
       </c>
       <c r="D7" t="str">
         <v>password_here</v>
@@ -658,27 +604,18 @@
         <v>general</v>
       </c>
       <c r="I7" t="str">
-        <v>tech_visionary</v>
-      </c>
-      <c r="J7" t="str">
-        <v>optimistic, professional, visionary</v>
-      </c>
-      <c r="K7" t="str">
-        <v>Code + Coffee = Life. ☕💻</v>
-      </c>
-      <c r="L7" t="str">
-        <v>AI, Space, Crypto, Startup</v>
+        <v>general</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>account_07</v>
+        <v>account_06</v>
       </c>
       <c r="B8" t="str">
         <v>twitter</v>
       </c>
       <c r="C8" t="str">
-        <v>user_handle_7</v>
+        <v>user_placeholder_6</v>
       </c>
       <c r="D8" t="str">
         <v>password_here</v>
@@ -696,27 +633,18 @@
         <v>general</v>
       </c>
       <c r="I8" t="str">
-        <v>shitposter</v>
-      </c>
-      <c r="J8" t="str">
-        <v>sarcastic, lowercase, chaotic</v>
-      </c>
-      <c r="K8" t="str">
-        <v>Not financial advice.</v>
-      </c>
-      <c r="L8" t="str">
-        <v>Pop Culture, Failures, Rants</v>
+        <v>general</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>account_08</v>
+        <v>account_07</v>
       </c>
       <c r="B9" t="str">
         <v>twitter</v>
       </c>
       <c r="C9" t="str">
-        <v>user_handle_8</v>
+        <v>user_placeholder_7</v>
       </c>
       <c r="D9" t="str">
         <v>password_here</v>
@@ -734,27 +662,18 @@
         <v>general</v>
       </c>
       <c r="I9" t="str">
-        <v>coffee_snob</v>
-      </c>
-      <c r="J9" t="str">
-        <v>detailed, sensory, passionate</v>
-      </c>
-      <c r="K9" t="str">
-        <v>Q-Grader in training.</v>
-      </c>
-      <c r="L9" t="str">
-        <v>Specialty Coffee, Roasting, Origin</v>
+        <v>general</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>account_09</v>
+        <v>account_08</v>
       </c>
       <c r="B10" t="str">
         <v>twitter</v>
       </c>
       <c r="C10" t="str">
-        <v>user_handle_9</v>
+        <v>user_placeholder_8</v>
       </c>
       <c r="D10" t="str">
         <v>password_here</v>
@@ -772,27 +691,18 @@
         <v>general</v>
       </c>
       <c r="I10" t="str">
-        <v>policy_analyst</v>
-      </c>
-      <c r="J10" t="str">
-        <v>formal, critical, academic</v>
-      </c>
-      <c r="K10" t="str">
-        <v>Observing the grid.</v>
-      </c>
-      <c r="L10" t="str">
-        <v>Politics, Urbanism, Economics</v>
+        <v>general</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>account_10</v>
+        <v>account_09</v>
       </c>
       <c r="B11" t="str">
         <v>twitter</v>
       </c>
       <c r="C11" t="str">
-        <v>user_handle_10</v>
+        <v>user_placeholder_9</v>
       </c>
       <c r="D11" t="str">
         <v>password_here</v>
@@ -810,21 +720,41 @@
         <v>general</v>
       </c>
       <c r="I11" t="str">
-        <v>crypto_degen</v>
-      </c>
-      <c r="J11" t="str">
-        <v>slang-heavy, hype, volatile</v>
-      </c>
-      <c r="K11" t="str">
-        <v>Bag holder.</v>
-      </c>
-      <c r="L11" t="str">
-        <v>Web3, NFTs, DeFi</v>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>account_10</v>
+      </c>
+      <c r="B12" t="str">
+        <v>twitter</v>
+      </c>
+      <c r="C12" t="str">
+        <v>user_placeholder_10</v>
+      </c>
+      <c r="D12" t="str">
+        <v>password_here</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v>inactive</v>
+      </c>
+      <c r="H12" t="str">
+        <v>general</v>
+      </c>
+      <c r="I12" t="str">
+        <v>general</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I12"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -858,7 +788,7 @@
         <v>general</v>
       </c>
       <c r="B2" t="str">
-        <v>General updates and thoughts.</v>
+        <v>General updates.</v>
       </c>
       <c r="C2" t="str">
         <v>Write a casual post about {{topic}}.</v>
@@ -867,41 +797,41 @@
         <v>daily</v>
       </c>
       <c r="E2" t="str">
-        <v>General Public</v>
+        <v>Public</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>tech_news</v>
+        <v>politics</v>
       </c>
       <c r="B3" t="str">
-        <v>Latest in AI and Dev.</v>
+        <v>Political analysis.</v>
       </c>
       <c r="C3" t="str">
-        <v>Summarize this tech news: {{topic}}</v>
+        <v>Analyze the impact of {{topic}} on local policy.</v>
       </c>
       <c r="D3" t="str">
-        <v>mwf</v>
+        <v>daily</v>
       </c>
       <c r="E3" t="str">
-        <v>Developers</v>
+        <v>Voters</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>coffee_culture</v>
+        <v>tech</v>
       </c>
       <c r="B4" t="str">
-        <v>Specialty coffee education.</v>
+        <v>Tech trends.</v>
       </c>
       <c r="C4" t="str">
-        <v>Explain this coffee concept: {{topic}}</v>
+        <v>Explain why {{topic}} matters.</v>
       </c>
       <c r="D4" t="str">
-        <v>tth</v>
+        <v>mwf</v>
       </c>
       <c r="E4" t="str">
-        <v>Coffee Lovers</v>
+        <v>Techies</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +843,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -938,93 +868,275 @@
         <v>content_text</v>
       </c>
       <c r="G1" t="str">
-        <v>media_path</v>
+        <v>target_url</v>
       </c>
       <c r="H1" t="str">
-        <v>hashtags</v>
+        <v>action_type</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>post_001</v>
+        <v>direct_acc_samuel</v>
       </c>
       <c r="B2" t="str">
-        <v>account_01</v>
+        <v>acc_samuel</v>
       </c>
       <c r="C2" t="str">
-        <v>general</v>
+        <v>support_lgv</v>
       </c>
       <c r="D2" t="str">
-        <v>2026-02-15 10:00</v>
+        <v>2026-02-14 11:50</v>
       </c>
       <c r="E2" t="str">
-        <v>draft</v>
+        <v>approved</v>
       </c>
       <c r="F2" t="str">
-        <v>Hello world from Account 1!</v>
+        <v>Es fundamental entender que la seguridad jurídica es la base de la inversión. Gran análisis @LuisGuillermoVl.</v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>https://x.com/luisguillermovl/status/2022646985677840818</v>
       </c>
       <c r="H2" t="str">
-        <v>#hello</v>
+        <v>reply</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>gen_1771084682752_273</v>
+        <v>direct_acc_mariate</v>
       </c>
       <c r="B3" t="str">
-        <v>account_01</v>
+        <v>acc_mariate</v>
       </c>
       <c r="C3" t="str">
-        <v>auto_gen</v>
+        <v>support_lgv</v>
       </c>
       <c r="D3" t="str">
-        <v>2026-02-15 12:00</v>
+        <v>2026-02-14 11:53</v>
       </c>
       <c r="E3" t="str">
-        <v>draft</v>
+        <v>approved</v>
       </c>
       <c r="F3" t="str">
-        <v>AI. That's it. That's the tweet.</v>
+        <v>Gracias por explicarlo tan claro. En las calles se siente la incertidumbre económica.</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>https://x.com/luisguillermovl/status/2022646985677840818</v>
       </c>
       <c r="H3" t="str">
-        <v>#AI</v>
+        <v>reply</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>gen_1771084682752_636</v>
+        <v>direct_acc_daniel</v>
       </c>
       <c r="B4" t="str">
-        <v>account_02</v>
+        <v>acc_daniel</v>
       </c>
       <c r="C4" t="str">
-        <v>auto_gen</v>
+        <v>support_lgv</v>
       </c>
       <c r="D4" t="str">
-        <v>2026-02-15 12:00</v>
+        <v>2026-02-14 11:56</v>
       </c>
       <c r="E4" t="str">
-        <v>draft</v>
+        <v>approved</v>
       </c>
       <c r="F4" t="str">
-        <v>breaking: pop culture just changed everything 🧵👇</v>
+        <v>¿Y dónde están los datos técnicos del gobierno? Vacíos. Gracias Concejal por poner los números sobre la mesa.</v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>https://x.com/luisguillermovl/status/2022646985677840818</v>
       </c>
       <c r="H4" t="str">
-        <v>#PopCulture</v>
+        <v>reply</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>direct_acc_nguerrero</v>
+      </c>
+      <c r="B5" t="str">
+        <v>acc_nguerrero</v>
+      </c>
+      <c r="C5" t="str">
+        <v>support_lgv</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2026-02-14 11:59</v>
+      </c>
+      <c r="E5" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Al fin alguien lo dice sin miedo. 🔥</v>
+      </c>
+      <c r="G5" t="str">
+        <v>https://x.com/luisguillermovl/status/2022646985677840818</v>
+      </c>
+      <c r="H5" t="str">
+        <v>reply</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>direct_acc_revistavoces</v>
+      </c>
+      <c r="B6" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C6" t="str">
+        <v>support_lgv</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2026-02-14 12:02</v>
+      </c>
+      <c r="E6" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Claves del pronunciamiento del Concejal Vélez sobre el decreto de Salario Mínimo. Hilo 👇</v>
+      </c>
+      <c r="G6" t="str">
+        <v>https://x.com/luisguillermovl/status/2022646985677840818</v>
+      </c>
+      <c r="H6" t="str">
+        <v>quote</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>debate_acc_samuel</v>
+      </c>
+      <c r="B7" t="str">
+        <v>acc_samuel</v>
+      </c>
+      <c r="C7" t="str">
+        <v>own_topic</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2026-02-14 12:20</v>
+      </c>
+      <c r="E7" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F7" t="str">
+        <v>La decisión del Consejo de Estado blinda nuestras instituciones. No es un capricho político.</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v>post</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>debate_acc_mariate</v>
+      </c>
+      <c r="B8" t="str">
+        <v>acc_mariate</v>
+      </c>
+      <c r="C8" t="str">
+        <v>own_topic</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2026-02-14 12:25</v>
+      </c>
+      <c r="E8" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Me preocupa mucho el costo de vida. ¿Qué piensan ustedes de este nuevo decreto?</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v>post</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>debate_acc_daniel</v>
+      </c>
+      <c r="B9" t="str">
+        <v>acc_daniel</v>
+      </c>
+      <c r="C9" t="str">
+        <v>own_topic</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2026-02-14 12:30</v>
+      </c>
+      <c r="E9" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Analizando el impacto en PYMES del nuevo decreto: Es insostenible sin subsidios cruzados.</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v>post</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>debate_acc_nguerrero</v>
+      </c>
+      <c r="B10" t="str">
+        <v>acc_nguerrero</v>
+      </c>
+      <c r="C10" t="str">
+        <v>own_topic</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2026-02-14 12:35</v>
+      </c>
+      <c r="E10" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F10" t="str">
+        <v>El gobierno cree que somos tontos. Nos meten la mano al bolsillo y dicen que es 'justicia social'.</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v>post</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>debate_acc_revistavoces</v>
+      </c>
+      <c r="B11" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C11" t="str">
+        <v>own_topic</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2026-02-14 12:40</v>
+      </c>
+      <c r="E11" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F11" t="str">
+        <v>URGENTE: Reacciones encontradas tras la suspensión del decreto de salario mínimo. ¿Crisis institucional?</v>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v>post</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Master_Social_Creds.xlsx
+++ b/Master_Social_Creds.xlsx
@@ -6,6 +6,7 @@
     <sheet name="ACCOUNTS" sheetId="1" r:id="rId1"/>
     <sheet name="CONTENT_LINES" sheetId="2" r:id="rId2"/>
     <sheet name="CALENDAR" sheetId="3" r:id="rId3"/>
+    <sheet name="INTERACTIONS" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -1027,4 +1028,17 @@
     <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/Master_Social_Creds.xlsx
+++ b/Master_Social_Creds.xlsx
@@ -843,7 +843,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -873,8 +873,11 @@
       <c r="H1" t="str">
         <v>action_type</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="I1" t="str">
+        <v>error_log</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>direct_acc_samuel</v>
       </c>
@@ -888,7 +891,7 @@
         <v>2026-02-14 11:50</v>
       </c>
       <c r="E2" t="str">
-        <v>approved</v>
+        <v>failed</v>
       </c>
       <c r="F2" t="str">
         <v>Es fundamental entender que la seguridad jurídica es la base de la inversión. Gran análisis @LuisGuillermoVl.</v>
@@ -899,8 +902,14 @@
       <c r="H2" t="str">
         <v>reply</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="I2" t="str" xml:space="preserve">
+        <v xml:space="preserve">Could not find Chrome (ver. 145.0.7632.67). This can occur if either
+ 1. you did not perform an installation before running the script (e.g. `npx puppeteer browsers install chrome`) or
+ 2. your cache path is incorrectly configured (which is: /home/jules/.cache/puppeteer).
+For (2), check out our guide on configuring puppeteer at https://pptr.dev/guides/configuration.</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>direct_acc_mariate</v>
       </c>
@@ -914,7 +923,7 @@
         <v>2026-02-14 11:53</v>
       </c>
       <c r="E3" t="str">
-        <v>approved</v>
+        <v>failed</v>
       </c>
       <c r="F3" t="str">
         <v>Gracias por explicarlo tan claro. En las calles se siente la incertidumbre económica.</v>
@@ -925,8 +934,14 @@
       <c r="H3" t="str">
         <v>reply</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="I3" t="str" xml:space="preserve">
+        <v xml:space="preserve">Could not find Chrome (ver. 145.0.7632.67). This can occur if either
+ 1. you did not perform an installation before running the script (e.g. `npx puppeteer browsers install chrome`) or
+ 2. your cache path is incorrectly configured (which is: /home/jules/.cache/puppeteer).
+For (2), check out our guide on configuring puppeteer at https://pptr.dev/guides/configuration.</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>direct_acc_daniel</v>
       </c>
@@ -940,7 +955,7 @@
         <v>2026-02-14 11:56</v>
       </c>
       <c r="E4" t="str">
-        <v>approved</v>
+        <v>failed</v>
       </c>
       <c r="F4" t="str">
         <v>¿Y dónde están los datos técnicos del gobierno? Vacíos. Gracias Concejal por poner los números sobre la mesa.</v>
@@ -951,8 +966,14 @@
       <c r="H4" t="str">
         <v>reply</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="I4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Could not find Chrome (ver. 145.0.7632.67). This can occur if either
+ 1. you did not perform an installation before running the script (e.g. `npx puppeteer browsers install chrome`) or
+ 2. your cache path is incorrectly configured (which is: /home/jules/.cache/puppeteer).
+For (2), check out our guide on configuring puppeteer at https://pptr.dev/guides/configuration.</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
       <c r="A5" t="str">
         <v>direct_acc_nguerrero</v>
       </c>
@@ -966,7 +987,7 @@
         <v>2026-02-14 11:59</v>
       </c>
       <c r="E5" t="str">
-        <v>approved</v>
+        <v>failed</v>
       </c>
       <c r="F5" t="str">
         <v>Al fin alguien lo dice sin miedo. 🔥</v>
@@ -977,8 +998,14 @@
       <c r="H5" t="str">
         <v>reply</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="I5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Could not find Chrome (ver. 145.0.7632.67). This can occur if either
+ 1. you did not perform an installation before running the script (e.g. `npx puppeteer browsers install chrome`) or
+ 2. your cache path is incorrectly configured (which is: /home/jules/.cache/puppeteer).
+For (2), check out our guide on configuring puppeteer at https://pptr.dev/guides/configuration.</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
       <c r="A6" t="str">
         <v>direct_acc_revistavoces</v>
       </c>
@@ -992,7 +1019,7 @@
         <v>2026-02-14 12:02</v>
       </c>
       <c r="E6" t="str">
-        <v>approved</v>
+        <v>failed</v>
       </c>
       <c r="F6" t="str">
         <v>Claves del pronunciamiento del Concejal Vélez sobre el decreto de Salario Mínimo. Hilo 👇</v>
@@ -1003,8 +1030,14 @@
       <c r="H6" t="str">
         <v>quote</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="I6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Could not find Chrome (ver. 145.0.7632.67). This can occur if either
+ 1. you did not perform an installation before running the script (e.g. `npx puppeteer browsers install chrome`) or
+ 2. your cache path is incorrectly configured (which is: /home/jules/.cache/puppeteer).
+For (2), check out our guide on configuring puppeteer at https://pptr.dev/guides/configuration.</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
       <c r="A7" t="str">
         <v>debate_acc_samuel</v>
       </c>
@@ -1018,7 +1051,7 @@
         <v>2026-02-14 12:20</v>
       </c>
       <c r="E7" t="str">
-        <v>approved</v>
+        <v>failed</v>
       </c>
       <c r="F7" t="str">
         <v>La decisión del Consejo de Estado blinda nuestras instituciones. No es un capricho político.</v>
@@ -1029,8 +1062,14 @@
       <c r="H7" t="str">
         <v>post</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="I7" t="str" xml:space="preserve">
+        <v xml:space="preserve">Could not find Chrome (ver. 145.0.7632.67). This can occur if either
+ 1. you did not perform an installation before running the script (e.g. `npx puppeteer browsers install chrome`) or
+ 2. your cache path is incorrectly configured (which is: /home/jules/.cache/puppeteer).
+For (2), check out our guide on configuring puppeteer at https://pptr.dev/guides/configuration.</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
       <c r="A8" t="str">
         <v>debate_acc_mariate</v>
       </c>
@@ -1044,7 +1083,7 @@
         <v>2026-02-14 12:25</v>
       </c>
       <c r="E8" t="str">
-        <v>approved</v>
+        <v>failed</v>
       </c>
       <c r="F8" t="str">
         <v>Me preocupa mucho el costo de vida. ¿Qué piensan ustedes de este nuevo decreto?</v>
@@ -1055,8 +1094,14 @@
       <c r="H8" t="str">
         <v>post</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="I8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Could not find Chrome (ver. 145.0.7632.67). This can occur if either
+ 1. you did not perform an installation before running the script (e.g. `npx puppeteer browsers install chrome`) or
+ 2. your cache path is incorrectly configured (which is: /home/jules/.cache/puppeteer).
+For (2), check out our guide on configuring puppeteer at https://pptr.dev/guides/configuration.</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
       <c r="A9" t="str">
         <v>debate_acc_daniel</v>
       </c>
@@ -1070,7 +1115,7 @@
         <v>2026-02-14 12:30</v>
       </c>
       <c r="E9" t="str">
-        <v>approved</v>
+        <v>failed</v>
       </c>
       <c r="F9" t="str">
         <v>Analizando el impacto en PYMES del nuevo decreto: Es insostenible sin subsidios cruzados.</v>
@@ -1081,8 +1126,14 @@
       <c r="H9" t="str">
         <v>post</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="I9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Could not find Chrome (ver. 145.0.7632.67). This can occur if either
+ 1. you did not perform an installation before running the script (e.g. `npx puppeteer browsers install chrome`) or
+ 2. your cache path is incorrectly configured (which is: /home/jules/.cache/puppeteer).
+For (2), check out our guide on configuring puppeteer at https://pptr.dev/guides/configuration.</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
       <c r="A10" t="str">
         <v>debate_acc_nguerrero</v>
       </c>
@@ -1096,7 +1147,7 @@
         <v>2026-02-14 12:35</v>
       </c>
       <c r="E10" t="str">
-        <v>approved</v>
+        <v>failed</v>
       </c>
       <c r="F10" t="str">
         <v>El gobierno cree que somos tontos. Nos meten la mano al bolsillo y dicen que es 'justicia social'.</v>
@@ -1107,8 +1158,14 @@
       <c r="H10" t="str">
         <v>post</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="I10" t="str" xml:space="preserve">
+        <v xml:space="preserve">Could not find Chrome (ver. 145.0.7632.67). This can occur if either
+ 1. you did not perform an installation before running the script (e.g. `npx puppeteer browsers install chrome`) or
+ 2. your cache path is incorrectly configured (which is: /home/jules/.cache/puppeteer).
+For (2), check out our guide on configuring puppeteer at https://pptr.dev/guides/configuration.</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
       <c r="A11" t="str">
         <v>debate_acc_revistavoces</v>
       </c>
@@ -1122,7 +1179,7 @@
         <v>2026-02-14 12:40</v>
       </c>
       <c r="E11" t="str">
-        <v>approved</v>
+        <v>failed</v>
       </c>
       <c r="F11" t="str">
         <v>URGENTE: Reacciones encontradas tras la suspensión del decreto de salario mínimo. ¿Crisis institucional?</v>
@@ -1133,10 +1190,16 @@
       <c r="H11" t="str">
         <v>post</v>
       </c>
+      <c r="I11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Could not find Chrome (ver. 145.0.7632.67). This can occur if either
+ 1. you did not perform an installation before running the script (e.g. `npx puppeteer browsers install chrome`) or
+ 2. your cache path is incorrectly configured (which is: /home/jules/.cache/puppeteer).
+For (2), check out our guide on configuring puppeteer at https://pptr.dev/guides/configuration.</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Master_Social_Creds.xlsx
+++ b/Master_Social_Creds.xlsx
@@ -843,7 +843,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -873,6 +873,15 @@
       <c r="H1" t="str">
         <v>action_type</v>
       </c>
+      <c r="I1" t="str">
+        <v>error_log</v>
+      </c>
+      <c r="J1" t="str">
+        <v>media_path</v>
+      </c>
+      <c r="K1" t="str">
+        <v>hashtags</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -885,10 +894,10 @@
         <v>support_lgv</v>
       </c>
       <c r="D2" t="str">
-        <v>2026-02-14 11:50</v>
+        <v>2026-02-14 11:52</v>
       </c>
       <c r="E2" t="str">
-        <v>approved</v>
+        <v>failed</v>
       </c>
       <c r="F2" t="str">
         <v>Es fundamental entender que la seguridad jurídica es la base de la inversión. Gran análisis @LuisGuillermoVl.</v>
@@ -898,6 +907,9 @@
       </c>
       <c r="H2" t="str">
         <v>reply</v>
+      </c>
+      <c r="I2" t="str">
+        <v>No element found for selector: input[name="password"]</v>
       </c>
     </row>
     <row r="3">
@@ -911,7 +923,7 @@
         <v>support_lgv</v>
       </c>
       <c r="D3" t="str">
-        <v>2026-02-14 11:53</v>
+        <v>2026-02-14 11:55</v>
       </c>
       <c r="E3" t="str">
         <v>approved</v>
@@ -928,100 +940,100 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>direct_acc_daniel</v>
+        <v>direct_acc_revistavoces</v>
       </c>
       <c r="B4" t="str">
-        <v>acc_daniel</v>
+        <v>acc_revistavoces</v>
       </c>
       <c r="C4" t="str">
         <v>support_lgv</v>
       </c>
       <c r="D4" t="str">
-        <v>2026-02-14 11:56</v>
+        <v>2026-02-14 11:58</v>
       </c>
       <c r="E4" t="str">
         <v>approved</v>
       </c>
       <c r="F4" t="str">
-        <v>¿Y dónde están los datos técnicos del gobierno? Vacíos. Gracias Concejal por poner los números sobre la mesa.</v>
+        <v>Claves del pronunciamiento del Concejal Vélez sobre el decreto de Salario Mínimo. Hilo 👇</v>
       </c>
       <c r="G4" t="str">
         <v>https://x.com/luisguillermovl/status/2022646985677840818</v>
       </c>
       <c r="H4" t="str">
-        <v>reply</v>
+        <v>quote</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>direct_acc_nguerrero</v>
+        <v>debate_acc_samuel</v>
       </c>
       <c r="B5" t="str">
-        <v>acc_nguerrero</v>
+        <v>acc_samuel</v>
       </c>
       <c r="C5" t="str">
-        <v>support_lgv</v>
+        <v>own_topic</v>
       </c>
       <c r="D5" t="str">
-        <v>2026-02-14 11:59</v>
+        <v>2026-02-14 12:22</v>
       </c>
       <c r="E5" t="str">
         <v>approved</v>
       </c>
       <c r="F5" t="str">
-        <v>Al fin alguien lo dice sin miedo. 🔥</v>
+        <v>La decisión del Consejo de Estado blinda nuestras instituciones. No es un capricho político.</v>
       </c>
       <c r="G5" t="str">
-        <v>https://x.com/luisguillermovl/status/2022646985677840818</v>
+        <v/>
       </c>
       <c r="H5" t="str">
-        <v>reply</v>
+        <v>post</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>direct_acc_revistavoces</v>
+        <v>debate_acc_mariate</v>
       </c>
       <c r="B6" t="str">
-        <v>acc_revistavoces</v>
+        <v>acc_mariate</v>
       </c>
       <c r="C6" t="str">
-        <v>support_lgv</v>
+        <v>own_topic</v>
       </c>
       <c r="D6" t="str">
-        <v>2026-02-14 12:02</v>
+        <v>2026-02-14 12:27</v>
       </c>
       <c r="E6" t="str">
         <v>approved</v>
       </c>
       <c r="F6" t="str">
-        <v>Claves del pronunciamiento del Concejal Vélez sobre el decreto de Salario Mínimo. Hilo 👇</v>
+        <v>Me preocupa mucho el costo de vida. ¿Qué piensan ustedes de este nuevo decreto?</v>
       </c>
       <c r="G6" t="str">
-        <v>https://x.com/luisguillermovl/status/2022646985677840818</v>
+        <v/>
       </c>
       <c r="H6" t="str">
-        <v>quote</v>
+        <v>post</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>debate_acc_samuel</v>
+        <v>debate_acc_revistavoces</v>
       </c>
       <c r="B7" t="str">
-        <v>acc_samuel</v>
+        <v>acc_revistavoces</v>
       </c>
       <c r="C7" t="str">
         <v>own_topic</v>
       </c>
       <c r="D7" t="str">
-        <v>2026-02-14 12:20</v>
+        <v>2026-02-14 12:32</v>
       </c>
       <c r="E7" t="str">
         <v>approved</v>
       </c>
       <c r="F7" t="str">
-        <v>La decisión del Consejo de Estado blinda nuestras instituciones. No es un capricho político.</v>
+        <v>URGENTE: Reacciones encontradas tras la suspensión del decreto de salario mínimo. ¿Crisis institucional?</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -1032,13 +1044,13 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>debate_acc_mariate</v>
+        <v>pol_batch_1771089647228_0</v>
       </c>
       <c r="B8" t="str">
-        <v>acc_mariate</v>
+        <v>acc_revistavoces</v>
       </c>
       <c r="C8" t="str">
-        <v>own_topic</v>
+        <v>politics_burst</v>
       </c>
       <c r="D8" t="str">
         <v>2026-02-14 12:25</v>
@@ -1047,96 +1059,2072 @@
         <v>approved</v>
       </c>
       <c r="F8" t="str">
-        <v>Me preocupa mucho el costo de vida. ¿Qué piensan ustedes de este nuevo decreto?</v>
-      </c>
-      <c r="G8" t="str">
-        <v/>
-      </c>
-      <c r="H8" t="str">
-        <v>post</v>
+        <v>Mientras otros gritan, @AlvaroUribeVel propone. Esa es la diferencia.</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v>#Politica #Colombia</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>debate_acc_daniel</v>
+        <v>pol_batch_1771089647229_1</v>
       </c>
       <c r="B9" t="str">
-        <v>acc_daniel</v>
+        <v>acc_revistavoces</v>
       </c>
       <c r="C9" t="str">
-        <v>own_topic</v>
+        <v>politics_burst</v>
       </c>
       <c r="D9" t="str">
-        <v>2026-02-14 12:30</v>
+        <v>2026-02-14 12:28</v>
       </c>
       <c r="E9" t="str">
         <v>approved</v>
       </c>
       <c r="F9" t="str">
-        <v>Analizando el impacto en PYMES del nuevo decreto: Es insostenible sin subsidios cruzados.</v>
-      </c>
-      <c r="G9" t="str">
-        <v/>
-      </c>
-      <c r="H9" t="str">
-        <v>post</v>
+        <v>Total respaldo a la oposición. No podemos permitir que el populismo destruya lo construido. (2/40)</v>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v>#Politica #Colombia</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>debate_acc_nguerrero</v>
+        <v>pol_batch_1771089647229_2</v>
       </c>
       <c r="B10" t="str">
-        <v>acc_nguerrero</v>
+        <v>acc_revistavoces</v>
       </c>
       <c r="C10" t="str">
-        <v>own_topic</v>
+        <v>politics_burst</v>
       </c>
       <c r="D10" t="str">
-        <v>2026-02-14 12:35</v>
+        <v>2026-02-14 12:31</v>
       </c>
       <c r="E10" t="str">
         <v>approved</v>
       </c>
       <c r="F10" t="str">
-        <v>El gobierno cree que somos tontos. Nos meten la mano al bolsillo y dicen que es 'justicia social'.</v>
-      </c>
-      <c r="G10" t="str">
-        <v/>
-      </c>
-      <c r="H10" t="str">
-        <v>post</v>
+        <v>Es momento de escuchar a la oposición. La claridad en tiempos de crisis es vital. 🇨🇴 #Colombia (3/40)</v>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v>#Politica #Colombia</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>debate_acc_revistavoces</v>
+        <v>pol_batch_1771089647229_3</v>
       </c>
       <c r="B11" t="str">
         <v>acc_revistavoces</v>
       </c>
       <c r="C11" t="str">
-        <v>own_topic</v>
+        <v>politics_burst</v>
       </c>
       <c r="D11" t="str">
+        <v>2026-02-14 12:34</v>
+      </c>
+      <c r="E11" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F11" t="str">
+        <v>El legado de @AlvaroUribeVel es la base sobre la que debemos reconstruir el orden. (4/40)</v>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>pol_batch_1771089647229_4</v>
+      </c>
+      <c r="B12" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C12" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2026-02-14 12:37</v>
+      </c>
+      <c r="E12" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F12" t="str">
+        <v>@PalomaValenciaL tiene razón: el respeto a la ley no es negociable. #EstadoDeDerecho</v>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>pol_batch_1771089647229_5</v>
+      </c>
+      <c r="B13" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C13" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D13" t="str">
         <v>2026-02-14 12:40</v>
       </c>
-      <c r="E11" t="str">
-        <v>approved</v>
-      </c>
-      <c r="F11" t="str">
-        <v>URGENTE: Reacciones encontradas tras la suspensión del decreto de salario mínimo. ¿Crisis institucional?</v>
-      </c>
-      <c r="G11" t="str">
-        <v/>
-      </c>
-      <c r="H11" t="str">
-        <v>post</v>
+      <c r="E13" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F13" t="str">
+        <v>La oposición inteligente se construye con argumentos, como lo hace @PalomaValenciaL.</v>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>pol_batch_1771089647229_6</v>
+      </c>
+      <c r="B14" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C14" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D14" t="str">
+        <v>2026-02-14 12:43</v>
+      </c>
+      <c r="E14" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Firmeza y coherencia. Eso representa la oposición en este debate.</v>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>pol_batch_1771089647229_7</v>
+      </c>
+      <c r="B15" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C15" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D15" t="str">
+        <v>2026-02-14 12:46</v>
+      </c>
+      <c r="E15" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Total respaldo a la oposición. No podemos permitir que el populismo destruya lo construido.</v>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>pol_batch_1771089647229_8</v>
+      </c>
+      <c r="B16" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C16" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D16" t="str">
+        <v>2026-02-14 12:49</v>
+      </c>
+      <c r="E16" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F16" t="str">
+        <v>El legado de @LuisGuillermoVl es la base sobre la que debemos reconstruir el orden. (9/40)</v>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>pol_batch_1771089647229_9</v>
+      </c>
+      <c r="B17" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C17" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D17" t="str">
+        <v>2026-02-14 12:52</v>
+      </c>
+      <c r="E17" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F17" t="str">
+        <v>La oposición inteligente se construye con argumentos, como lo hace @AlvaroUribeVel.</v>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>pol_batch_1771089647229_10</v>
+      </c>
+      <c r="B18" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C18" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D18" t="str">
+        <v>2026-02-14 12:55</v>
+      </c>
+      <c r="E18" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F18" t="str">
+        <v>¿Ya leyeron lo último de @PalomaValenciaL? Análisis impecable sobre la situación actual.</v>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>pol_batch_1771089647229_11</v>
+      </c>
+      <c r="B19" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C19" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D19" t="str">
+        <v>2026-02-14 12:58</v>
+      </c>
+      <c r="E19" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Mientras otros gritan, @PalomaValenciaL propone. Esa es la diferencia.</v>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>pol_batch_1771089647230_12</v>
+      </c>
+      <c r="B20" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C20" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D20" t="str">
+        <v>2026-02-14 13:01</v>
+      </c>
+      <c r="E20" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F20" t="str">
+        <v>La oposición inteligente se construye con argumentos, como lo hace @LuisGuillermoVl.</v>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>pol_batch_1771089647230_13</v>
+      </c>
+      <c r="B21" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C21" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D21" t="str">
+        <v>2026-02-14 13:04</v>
+      </c>
+      <c r="E21" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Es momento de escuchar a @LuisGuillermoVl. La claridad en tiempos de crisis es vital. 🇨🇴 #Colombia (14/40)</v>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>pol_batch_1771089647230_14</v>
+      </c>
+      <c r="B22" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C22" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D22" t="str">
+        <v>2026-02-14 13:07</v>
+      </c>
+      <c r="E22" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Total respaldo a @PalomaValenciaL. No podemos permitir que el populismo destruya lo construido.</v>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>pol_batch_1771089647230_15</v>
+      </c>
+      <c r="B23" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C23" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D23" t="str">
+        <v>2026-02-14 13:10</v>
+      </c>
+      <c r="E23" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Mientras otros gritan, la oposición propone. Esa es la diferencia. (16/40)</v>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>pol_batch_1771089647230_16</v>
+      </c>
+      <c r="B24" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C24" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D24" t="str">
+        <v>2026-02-14 13:13</v>
+      </c>
+      <c r="E24" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Total respaldo a @PalomaValenciaL. No podemos permitir que el populismo destruya lo construido.</v>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>pol_batch_1771089647230_17</v>
+      </c>
+      <c r="B25" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C25" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D25" t="str">
+        <v>2026-02-14 13:16</v>
+      </c>
+      <c r="E25" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Mientras otros gritan, @PalomaValenciaL propone. Esa es la diferencia.</v>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>pol_batch_1771089647230_18</v>
+      </c>
+      <c r="B26" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C26" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D26" t="str">
+        <v>2026-02-14 13:19</v>
+      </c>
+      <c r="E26" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F26" t="str">
+        <v>¿Ya leyeron lo último de la oposición? Análisis impecable sobre la situación actual. (19/40)</v>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>pol_batch_1771089647230_19</v>
+      </c>
+      <c r="B27" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C27" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D27" t="str">
+        <v>2026-02-14 13:22</v>
+      </c>
+      <c r="E27" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F27" t="str">
+        <v>El legado de @LuisGuillermoVl es la base sobre la que debemos reconstruir el orden.</v>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>pol_batch_1771089647230_20</v>
+      </c>
+      <c r="B28" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C28" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D28" t="str">
+        <v>2026-02-14 13:25</v>
+      </c>
+      <c r="E28" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Mientras otros gritan, @AlvaroUribeVel propone. Esa es la diferencia. (21/40)</v>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>pol_batch_1771089647230_21</v>
+      </c>
+      <c r="B29" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C29" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D29" t="str">
+        <v>2026-02-14 13:28</v>
+      </c>
+      <c r="E29" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Mientras otros gritan, @LuisGuillermoVl propone. Esa es la diferencia.</v>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>pol_batch_1771089647230_22</v>
+      </c>
+      <c r="B30" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C30" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D30" t="str">
+        <v>2026-02-14 13:31</v>
+      </c>
+      <c r="E30" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Mientras otros gritan, la oposición propone. Esa es la diferencia. (23/40)</v>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>pol_batch_1771089647230_23</v>
+      </c>
+      <c r="B31" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C31" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D31" t="str">
+        <v>2026-02-14 13:34</v>
+      </c>
+      <c r="E31" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F31" t="str">
+        <v>¿Ya leyeron lo último de @AlvaroUribeVel? Análisis impecable sobre la situación actual. (24/40)</v>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>pol_batch_1771089647230_24</v>
+      </c>
+      <c r="B32" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C32" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D32" t="str">
+        <v>2026-02-14 13:37</v>
+      </c>
+      <c r="E32" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Total respaldo a @LuisGuillermoVl. No podemos permitir que el populismo destruya lo construido. (25/40)</v>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>pol_batch_1771089647230_25</v>
+      </c>
+      <c r="B33" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C33" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D33" t="str">
+        <v>2026-02-14 13:40</v>
+      </c>
+      <c r="E33" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Total respaldo a @LuisGuillermoVl. No podemos permitir que el populismo destruya lo construido. (26/40)</v>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>pol_batch_1771089647230_26</v>
+      </c>
+      <c r="B34" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C34" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D34" t="str">
+        <v>2026-02-14 13:43</v>
+      </c>
+      <c r="E34" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Es momento de escuchar a @LuisGuillermoVl. La claridad en tiempos de crisis es vital. 🇨🇴 #Colombia (27/40)</v>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>pol_batch_1771089647230_27</v>
+      </c>
+      <c r="B35" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C35" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D35" t="str">
+        <v>2026-02-14 13:46</v>
+      </c>
+      <c r="E35" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Mientras otros gritan, @LuisGuillermoVl propone. Esa es la diferencia.</v>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>pol_batch_1771089647230_28</v>
+      </c>
+      <c r="B36" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C36" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D36" t="str">
+        <v>2026-02-14 13:49</v>
+      </c>
+      <c r="E36" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Total respaldo a @LuisGuillermoVl. No podemos permitir que el populismo destruya lo construido.</v>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>pol_batch_1771089647230_29</v>
+      </c>
+      <c r="B37" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C37" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D37" t="str">
+        <v>2026-02-14 13:52</v>
+      </c>
+      <c r="E37" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F37" t="str">
+        <v>¿Ya leyeron lo último de @LuisGuillermoVl? Análisis impecable sobre la situación actual. (30/40)</v>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>pol_batch_1771089647230_30</v>
+      </c>
+      <c r="B38" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C38" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D38" t="str">
+        <v>2026-02-14 13:55</v>
+      </c>
+      <c r="E38" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F38" t="str">
+        <v>El legado de la oposición es la base sobre la que debemos reconstruir el orden.</v>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>pol_batch_1771089647230_31</v>
+      </c>
+      <c r="B39" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C39" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D39" t="str">
+        <v>2026-02-14 13:58</v>
+      </c>
+      <c r="E39" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F39" t="str">
+        <v>El legado de @PalomaValenciaL es la base sobre la que debemos reconstruir el orden. (32/40)</v>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>pol_batch_1771089647230_32</v>
+      </c>
+      <c r="B40" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C40" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D40" t="str">
+        <v>2026-02-14 14:01</v>
+      </c>
+      <c r="E40" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F40" t="str">
+        <v>@AlvaroUribeVel tiene razón: el respeto a la ley no es negociable. #EstadoDeDerecho (33/40)</v>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>pol_batch_1771089647230_33</v>
+      </c>
+      <c r="B41" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C41" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D41" t="str">
+        <v>2026-02-14 14:04</v>
+      </c>
+      <c r="E41" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Total respaldo a @LuisGuillermoVl. No podemos permitir que el populismo destruya lo construido. (34/40)</v>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>pol_batch_1771089647230_34</v>
+      </c>
+      <c r="B42" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C42" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D42" t="str">
+        <v>2026-02-14 14:07</v>
+      </c>
+      <c r="E42" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F42" t="str">
+        <v>El legado de @LuisGuillermoVl es la base sobre la que debemos reconstruir el orden.</v>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>pol_batch_1771089647230_35</v>
+      </c>
+      <c r="B43" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C43" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D43" t="str">
+        <v>2026-02-14 14:10</v>
+      </c>
+      <c r="E43" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F43" t="str">
+        <v>@PalomaValenciaL tiene razón: el respeto a la ley no es negociable. #EstadoDeDerecho</v>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>pol_batch_1771089647230_36</v>
+      </c>
+      <c r="B44" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C44" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D44" t="str">
+        <v>2026-02-14 14:13</v>
+      </c>
+      <c r="E44" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Total respaldo a @PalomaValenciaL. No podemos permitir que el populismo destruya lo construido. (37/40)</v>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>pol_batch_1771089647230_37</v>
+      </c>
+      <c r="B45" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C45" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D45" t="str">
+        <v>2026-02-14 14:16</v>
+      </c>
+      <c r="E45" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Firmeza y coherencia. Eso representa la oposición en este debate. (38/40)</v>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>pol_batch_1771089647230_38</v>
+      </c>
+      <c r="B46" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C46" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D46" t="str">
+        <v>2026-02-14 14:19</v>
+      </c>
+      <c r="E46" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Total respaldo a @LuisGuillermoVl. No podemos permitir que el populismo destruya lo construido.</v>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>pol_batch_1771089647231_39</v>
+      </c>
+      <c r="B47" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C47" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D47" t="str">
+        <v>2026-02-14 14:22</v>
+      </c>
+      <c r="E47" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F47" t="str">
+        <v>¿Ya leyeron lo último de @LuisGuillermoVl? Análisis impecable sobre la situación actual. (40/40)</v>
+      </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>pol_batch_1771090284930_0</v>
+      </c>
+      <c r="B48" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C48" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D48" t="str">
+        <v>2026-02-14 12:36</v>
+      </c>
+      <c r="E48" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Es momento de escuchar a @AlvaroUribeVel. La claridad en tiempos de crisis es vital. 🇨🇴 #Colombia</v>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>pol_batch_1771090284931_1</v>
+      </c>
+      <c r="B49" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C49" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D49" t="str">
+        <v>2026-02-14 12:39</v>
+      </c>
+      <c r="E49" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F49" t="str">
+        <v>@AlvaroUribeVel tiene razón: el respeto a la ley no es negociable. #EstadoDeDerecho</v>
+      </c>
+      <c r="J49" t="str">
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>pol_batch_1771090284931_2</v>
+      </c>
+      <c r="B50" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C50" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D50" t="str">
+        <v>2026-02-14 12:42</v>
+      </c>
+      <c r="E50" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F50" t="str">
+        <v>La historia no se repite, pero rima. El control de precios falló en Roma y fallará en Colombia. Escuchen a @LuisGuillermoVl.</v>
+      </c>
+      <c r="J50" t="str">
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>pol_batch_1771090284932_3</v>
+      </c>
+      <c r="B51" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C51" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D51" t="str">
+        <v>2026-02-14 12:45</v>
+      </c>
+      <c r="E51" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F51" t="str">
+        <v>El legado de @PalomaValenciaL es la base sobre la que debemos reconstruir el orden. (4/40)</v>
+      </c>
+      <c r="J51" t="str">
+        <v/>
+      </c>
+      <c r="K51" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>pol_batch_1771090284932_4</v>
+      </c>
+      <c r="B52" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C52" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D52" t="str">
+        <v>2026-02-14 12:48</v>
+      </c>
+      <c r="E52" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F52" t="str">
+        <v>¿Ya leyeron lo último de @LuisGuillermoVl? Análisis impecable sobre la situación actual. (5/40)</v>
+      </c>
+      <c r="J52" t="str">
+        <v/>
+      </c>
+      <c r="K52" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>pol_batch_1771090284932_5</v>
+      </c>
+      <c r="B53" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C53" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D53" t="str">
+        <v>2026-02-14 12:51</v>
+      </c>
+      <c r="E53" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F53" t="str">
+        <v>La historia no se repite, pero rima. El control de precios falló en Roma y fallará en Colombia. Escuchen a la oposición.</v>
+      </c>
+      <c r="J53" t="str">
+        <v/>
+      </c>
+      <c r="K53" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>pol_batch_1771090284932_6</v>
+      </c>
+      <c r="B54" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C54" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D54" t="str">
+        <v>2026-02-14 12:54</v>
+      </c>
+      <c r="E54" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F54" t="str">
+        <v>El legado de @PalomaValenciaL es la base sobre la que debemos reconstruir el orden.</v>
+      </c>
+      <c r="J54" t="str">
+        <v/>
+      </c>
+      <c r="K54" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>pol_batch_1771090284932_7</v>
+      </c>
+      <c r="B55" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C55" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D55" t="str">
+        <v>2026-02-14 12:57</v>
+      </c>
+      <c r="E55" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F55" t="str">
+        <v>En el 301 d.C, Diocleciano intentó fijar precios por decreto. Resultado: Colapso y hambre. Hoy @LuisGuillermoVl nos advierte del mismo error.</v>
+      </c>
+      <c r="J55" t="str">
+        <v/>
+      </c>
+      <c r="K55" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>pol_batch_1771090284932_8</v>
+      </c>
+      <c r="B56" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C56" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D56" t="str">
+        <v>2026-02-14 13:00</v>
+      </c>
+      <c r="E56" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F56" t="str">
+        <v>La oposición inteligente se construye con argumentos, como lo hace @PalomaValenciaL. (9/40)</v>
+      </c>
+      <c r="J56" t="str">
+        <v/>
+      </c>
+      <c r="K56" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>pol_batch_1771090284932_9</v>
+      </c>
+      <c r="B57" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C57" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D57" t="str">
+        <v>2026-02-14 13:03</v>
+      </c>
+      <c r="E57" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Mientras otros gritan, la oposición propone. Esa es la diferencia.</v>
+      </c>
+      <c r="J57" t="str">
+        <v/>
+      </c>
+      <c r="K57" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>pol_batch_1771090284932_10</v>
+      </c>
+      <c r="B58" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C58" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D58" t="str">
+        <v>2026-02-14 13:06</v>
+      </c>
+      <c r="E58" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F58" t="str">
+        <v>La oposición inteligente se construye con argumentos, como lo hace @LuisGuillermoVl.</v>
+      </c>
+      <c r="J58" t="str">
+        <v/>
+      </c>
+      <c r="K58" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>pol_batch_1771090284932_11</v>
+      </c>
+      <c r="B59" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C59" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D59" t="str">
+        <v>2026-02-14 13:09</v>
+      </c>
+      <c r="E59" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Firmeza y coherencia. Eso representa @AlvaroUribeVel en este debate.</v>
+      </c>
+      <c r="J59" t="str">
+        <v/>
+      </c>
+      <c r="K59" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>pol_batch_1771090284932_12</v>
+      </c>
+      <c r="B60" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C60" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D60" t="str">
+        <v>2026-02-14 13:12</v>
+      </c>
+      <c r="E60" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Mientras otros gritan, @AlvaroUribeVel propone. Esa es la diferencia. (13/40)</v>
+      </c>
+      <c r="J60" t="str">
+        <v/>
+      </c>
+      <c r="K60" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>pol_batch_1771090284932_13</v>
+      </c>
+      <c r="B61" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C61" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D61" t="str">
+        <v>2026-02-14 13:15</v>
+      </c>
+      <c r="E61" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F61" t="str">
+        <v>¿Ya leyeron lo último de @AlvaroUribeVel? Análisis impecable sobre la situación actual. (14/40)</v>
+      </c>
+      <c r="J61" t="str">
+        <v/>
+      </c>
+      <c r="K61" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>pol_batch_1771090284932_14</v>
+      </c>
+      <c r="B62" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C62" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D62" t="str">
+        <v>2026-02-14 13:18</v>
+      </c>
+      <c r="E62" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Total respaldo a @LuisGuillermoVl. No podemos permitir que el populismo destruya lo construido.</v>
+      </c>
+      <c r="J62" t="str">
+        <v/>
+      </c>
+      <c r="K62" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>pol_batch_1771090284932_15</v>
+      </c>
+      <c r="B63" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C63" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D63" t="str">
+        <v>2026-02-14 13:21</v>
+      </c>
+      <c r="E63" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Mientras otros gritan, la oposición propone. Esa es la diferencia.</v>
+      </c>
+      <c r="J63" t="str">
+        <v/>
+      </c>
+      <c r="K63" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>pol_batch_1771090284933_16</v>
+      </c>
+      <c r="B64" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C64" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D64" t="str">
+        <v>2026-02-14 13:24</v>
+      </c>
+      <c r="E64" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Mientras otros gritan, la oposición propone. Esa es la diferencia. (17/40)</v>
+      </c>
+      <c r="J64" t="str">
+        <v/>
+      </c>
+      <c r="K64" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>pol_batch_1771090284933_17</v>
+      </c>
+      <c r="B65" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C65" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D65" t="str">
+        <v>2026-02-14 13:27</v>
+      </c>
+      <c r="E65" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F65" t="str">
+        <v>En el 301 d.C, Diocleciano intentó fijar precios por decreto. Resultado: Colapso y hambre. Hoy @PalomaValenciaL nos advierte del mismo error. (18/40)</v>
+      </c>
+      <c r="J65" t="str">
+        <v/>
+      </c>
+      <c r="K65" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>pol_batch_1771090284933_18</v>
+      </c>
+      <c r="B66" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C66" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D66" t="str">
+        <v>2026-02-14 13:30</v>
+      </c>
+      <c r="E66" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F66" t="str">
+        <v>la oposición tiene razón: el respeto a la ley no es negociable. #EstadoDeDerecho (19/40)</v>
+      </c>
+      <c r="J66" t="str">
+        <v/>
+      </c>
+      <c r="K66" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>pol_batch_1771090284933_19</v>
+      </c>
+      <c r="B67" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C67" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D67" t="str">
+        <v>2026-02-14 13:33</v>
+      </c>
+      <c r="E67" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Es momento de escuchar a @LuisGuillermoVl. La claridad en tiempos de crisis es vital. 🇨🇴 #Colombia (20/40)</v>
+      </c>
+      <c r="J67" t="str">
+        <v/>
+      </c>
+      <c r="K67" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>pol_batch_1771090284933_20</v>
+      </c>
+      <c r="B68" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C68" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D68" t="str">
+        <v>2026-02-14 13:36</v>
+      </c>
+      <c r="E68" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F68" t="str">
+        <v>El legado de @PalomaValenciaL es la base sobre la que debemos reconstruir el orden.</v>
+      </c>
+      <c r="J68" t="str">
+        <v/>
+      </c>
+      <c r="K68" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>pol_batch_1771090284933_21</v>
+      </c>
+      <c r="B69" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C69" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D69" t="str">
+        <v>2026-02-14 13:39</v>
+      </c>
+      <c r="E69" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Firmeza y coherencia. Eso representa @LuisGuillermoVl en este debate. (22/40)</v>
+      </c>
+      <c r="J69" t="str">
+        <v/>
+      </c>
+      <c r="K69" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>pol_batch_1771090284933_22</v>
+      </c>
+      <c r="B70" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C70" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D70" t="str">
+        <v>2026-02-14 13:42</v>
+      </c>
+      <c r="E70" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Total respaldo a @PalomaValenciaL. No podemos permitir que el populismo destruya lo construido. (23/40)</v>
+      </c>
+      <c r="J70" t="str">
+        <v/>
+      </c>
+      <c r="K70" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>pol_batch_1771090284933_23</v>
+      </c>
+      <c r="B71" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C71" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D71" t="str">
+        <v>2026-02-14 13:45</v>
+      </c>
+      <c r="E71" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Firmeza y coherencia. Eso representa @PalomaValenciaL en este debate. (24/40)</v>
+      </c>
+      <c r="J71" t="str">
+        <v/>
+      </c>
+      <c r="K71" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>pol_batch_1771090284933_24</v>
+      </c>
+      <c r="B72" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C72" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D72" t="str">
+        <v>2026-02-14 13:48</v>
+      </c>
+      <c r="E72" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Firmeza y coherencia. Eso representa la oposición en este debate. (25/40)</v>
+      </c>
+      <c r="J72" t="str">
+        <v/>
+      </c>
+      <c r="K72" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>pol_batch_1771090284933_25</v>
+      </c>
+      <c r="B73" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C73" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D73" t="str">
+        <v>2026-02-14 13:51</v>
+      </c>
+      <c r="E73" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F73" t="str">
+        <v>La oposición inteligente se construye con argumentos, como lo hace @PalomaValenciaL. (26/40)</v>
+      </c>
+      <c r="J73" t="str">
+        <v/>
+      </c>
+      <c r="K73" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>pol_batch_1771090284933_26</v>
+      </c>
+      <c r="B74" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C74" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D74" t="str">
+        <v>2026-02-14 13:54</v>
+      </c>
+      <c r="E74" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Firmeza y coherencia. Eso representa @AlvaroUribeVel en este debate. (27/40)</v>
+      </c>
+      <c r="J74" t="str">
+        <v/>
+      </c>
+      <c r="K74" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>pol_batch_1771090284933_27</v>
+      </c>
+      <c r="B75" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C75" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D75" t="str">
+        <v>2026-02-14 13:57</v>
+      </c>
+      <c r="E75" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F75" t="str">
+        <v>¿Ya leyeron lo último de @LuisGuillermoVl? Análisis impecable sobre la situación actual. (28/40)</v>
+      </c>
+      <c r="J75" t="str">
+        <v/>
+      </c>
+      <c r="K75" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>pol_batch_1771090284933_28</v>
+      </c>
+      <c r="B76" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C76" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D76" t="str">
+        <v>2026-02-14 14:00</v>
+      </c>
+      <c r="E76" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F76" t="str">
+        <v>@PalomaValenciaL tiene razón: el respeto a la ley no es negociable. #EstadoDeDerecho</v>
+      </c>
+      <c r="J76" t="str">
+        <v/>
+      </c>
+      <c r="K76" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>pol_batch_1771090284933_29</v>
+      </c>
+      <c r="B77" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C77" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D77" t="str">
+        <v>2026-02-14 14:03</v>
+      </c>
+      <c r="E77" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F77" t="str">
+        <v>Ignorar la ley de oferta y demanda es suicidio económico. Como bien dice @AlvaroUribeVel, el populismo se paga caro. (30/40)</v>
+      </c>
+      <c r="J77" t="str">
+        <v/>
+      </c>
+      <c r="K77" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>pol_batch_1771090284933_30</v>
+      </c>
+      <c r="B78" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C78" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D78" t="str">
+        <v>2026-02-14 14:06</v>
+      </c>
+      <c r="E78" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F78" t="str">
+        <v>la oposición tiene razón: el respeto a la ley no es negociable. #EstadoDeDerecho (31/40)</v>
+      </c>
+      <c r="J78" t="str">
+        <v/>
+      </c>
+      <c r="K78" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>pol_batch_1771090284933_31</v>
+      </c>
+      <c r="B79" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C79" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D79" t="str">
+        <v>2026-02-14 14:09</v>
+      </c>
+      <c r="E79" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F79" t="str">
+        <v>En el 301 d.C, Diocleciano intentó fijar precios por decreto. Resultado: Colapso y hambre. Hoy @AlvaroUribeVel nos advierte del mismo error. (32/40)</v>
+      </c>
+      <c r="J79" t="str">
+        <v/>
+      </c>
+      <c r="K79" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>pol_batch_1771090284933_32</v>
+      </c>
+      <c r="B80" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C80" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D80" t="str">
+        <v>2026-02-14 14:12</v>
+      </c>
+      <c r="E80" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F80" t="str">
+        <v>La oposición inteligente se construye con argumentos, como lo hace @LuisGuillermoVl.</v>
+      </c>
+      <c r="J80" t="str">
+        <v/>
+      </c>
+      <c r="K80" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>pol_batch_1771090284933_33</v>
+      </c>
+      <c r="B81" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C81" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D81" t="str">
+        <v>2026-02-14 14:15</v>
+      </c>
+      <c r="E81" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F81" t="str">
+        <v>La historia no se repite, pero rima. El control de precios falló en Roma y fallará en Colombia. Escuchen a @PalomaValenciaL.</v>
+      </c>
+      <c r="J81" t="str">
+        <v/>
+      </c>
+      <c r="K81" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>pol_batch_1771090284933_34</v>
+      </c>
+      <c r="B82" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C82" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D82" t="str">
+        <v>2026-02-14 14:18</v>
+      </c>
+      <c r="E82" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F82" t="str">
+        <v>El legado de @LuisGuillermoVl es la base sobre la que debemos reconstruir el orden. (35/40)</v>
+      </c>
+      <c r="J82" t="str">
+        <v/>
+      </c>
+      <c r="K82" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>pol_batch_1771090284934_35</v>
+      </c>
+      <c r="B83" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C83" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D83" t="str">
+        <v>2026-02-14 14:21</v>
+      </c>
+      <c r="E83" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Total respaldo a @PalomaValenciaL. No podemos permitir que el populismo destruya lo construido.</v>
+      </c>
+      <c r="J83" t="str">
+        <v/>
+      </c>
+      <c r="K83" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>pol_batch_1771090284934_36</v>
+      </c>
+      <c r="B84" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C84" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D84" t="str">
+        <v>2026-02-14 14:24</v>
+      </c>
+      <c r="E84" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F84" t="str">
+        <v>La oposición inteligente se construye con argumentos, como lo hace @PalomaValenciaL. (37/40)</v>
+      </c>
+      <c r="J84" t="str">
+        <v/>
+      </c>
+      <c r="K84" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>pol_batch_1771090284934_37</v>
+      </c>
+      <c r="B85" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C85" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D85" t="str">
+        <v>2026-02-14 14:27</v>
+      </c>
+      <c r="E85" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F85" t="str">
+        <v>En el 301 d.C, Diocleciano intentó fijar precios por decreto. Resultado: Colapso y hambre. Hoy @AlvaroUribeVel nos advierte del mismo error. (38/40)</v>
+      </c>
+      <c r="J85" t="str">
+        <v/>
+      </c>
+      <c r="K85" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>pol_batch_1771090284934_38</v>
+      </c>
+      <c r="B86" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C86" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D86" t="str">
+        <v>2026-02-14 14:30</v>
+      </c>
+      <c r="E86" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F86" t="str">
+        <v>En el 301 d.C, Diocleciano intentó fijar precios por decreto. Resultado: Colapso y hambre. Hoy la oposición nos advierte del mismo error.</v>
+      </c>
+      <c r="J86" t="str">
+        <v/>
+      </c>
+      <c r="K86" t="str">
+        <v>#Politica #Colombia</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>pol_batch_1771090284934_39</v>
+      </c>
+      <c r="B87" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C87" t="str">
+        <v>politics_burst</v>
+      </c>
+      <c r="D87" t="str">
+        <v>2026-02-14 14:33</v>
+      </c>
+      <c r="E87" t="str">
+        <v>approved</v>
+      </c>
+      <c r="F87" t="str">
+        <v>la oposición tiene razón: el respeto a la ley no es negociable. #EstadoDeDerecho</v>
+      </c>
+      <c r="J87" t="str">
+        <v/>
+      </c>
+      <c r="K87" t="str">
+        <v>#Politica #Colombia</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K87"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Master_Social_Creds.xlsx
+++ b/Master_Social_Creds.xlsx
@@ -843,7 +843,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -873,6 +873,12 @@
       <c r="H1" t="str">
         <v>action_type</v>
       </c>
+      <c r="I1" t="str">
+        <v>media_path</v>
+      </c>
+      <c r="J1" t="str">
+        <v>hashtags</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -1134,9 +1140,139 @@
         <v>post</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>gen_1771098233726_888</v>
+      </c>
+      <c r="B12" t="str">
+        <v>acc_samuel</v>
+      </c>
+      <c r="C12" t="str">
+        <v>auto_gen</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2026-02-15 12:00</v>
+      </c>
+      <c r="E12" t="str">
+        <v>draft</v>
+      </c>
+      <c r="F12" t="str">
+        <v>[ANALYSIS] Regarding Life: Critical implications emerging.</v>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v>#Life</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>gen_1771098233727_555</v>
+      </c>
+      <c r="B13" t="str">
+        <v>acc_mariate</v>
+      </c>
+      <c r="C13" t="str">
+        <v>auto_gen</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2026-02-15 12:00</v>
+      </c>
+      <c r="E13" t="str">
+        <v>draft</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Life. That's it. That's the tweet.</v>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v>#Life</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>gen_1771098233727_7</v>
+      </c>
+      <c r="B14" t="str">
+        <v>acc_daniel</v>
+      </c>
+      <c r="C14" t="str">
+        <v>auto_gen</v>
+      </c>
+      <c r="D14" t="str">
+        <v>2026-02-15 12:00</v>
+      </c>
+      <c r="E14" t="str">
+        <v>draft</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Just thinking about Life... 🤔</v>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v>#Life</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>gen_1771098233727_279</v>
+      </c>
+      <c r="B15" t="str">
+        <v>acc_nguerrero</v>
+      </c>
+      <c r="C15" t="str">
+        <v>auto_gen</v>
+      </c>
+      <c r="D15" t="str">
+        <v>2026-02-15 12:00</v>
+      </c>
+      <c r="E15" t="str">
+        <v>draft</v>
+      </c>
+      <c r="F15" t="str">
+        <v>just thinking about life.. 🤔</v>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v>#Life</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>gen_1771098233727_3</v>
+      </c>
+      <c r="B16" t="str">
+        <v>acc_revistavoces</v>
+      </c>
+      <c r="C16" t="str">
+        <v>auto_gen</v>
+      </c>
+      <c r="D16" t="str">
+        <v>2026-02-15 12:00</v>
+      </c>
+      <c r="E16" t="str">
+        <v>draft</v>
+      </c>
+      <c r="F16" t="str">
+        <v>BREAKING: Life just changed everything. 🧵👇</v>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v>#Life</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J16"/>
   </ignoredErrors>
 </worksheet>
 </file>